--- a/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="1860" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="31440" yWindow="1860" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -659,6 +659,48 @@
   </si>
   <si>
     <t>end screen</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a888</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a999</t>
+  </si>
+  <si>
+    <t>a9999</t>
   </si>
 </sst>
 </file>
@@ -735,7 +777,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="533">
+  <cellStyleXfs count="537">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1269,8 +1311,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1280,9 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1355,7 +1398,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="533">
+  <cellStyles count="537">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1622,6 +1665,8 @@
     <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1888,6 +1933,8 @@
     <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2224,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2234,13 +2281,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="22" customWidth="1"/>
     <col min="5" max="5" width="63" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="28"/>
+    <col min="9" max="9" width="10.83203125" style="27"/>
     <col min="10" max="10" width="10.83203125" style="3"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="3"/>
@@ -2252,623 +2299,623 @@
       <c r="A1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" s="14" customFormat="1">
-      <c r="B3" s="9" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" s="13" customFormat="1">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" s="14" customFormat="1">
-      <c r="B4" s="9" t="s">
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" s="13" customFormat="1">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="120">
-      <c r="B5" s="11" t="s">
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="120">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" s="14" customFormat="1">
-      <c r="B6" s="9" t="s">
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" s="13" customFormat="1">
+      <c r="B6" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" ht="45">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:17" s="13" customFormat="1" ht="45">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="75">
-      <c r="B8" s="9" t="s">
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:17" s="13" customFormat="1" ht="75">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="14" customFormat="1" ht="45">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:17" s="13" customFormat="1" ht="45">
+      <c r="B9" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" ht="30">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:17" s="13" customFormat="1" ht="30">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" ht="30">
-      <c r="A11" s="14" t="s">
+      <c r="I10" s="25"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" ht="30">
+      <c r="A11" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="23"/>
-      <c r="I11" s="26"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" s="14" customFormat="1">
-      <c r="B12" s="9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1">
+      <c r="B12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" s="14" customFormat="1">
-      <c r="B13" s="9" t="s">
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1">
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" s="14" customFormat="1">
-      <c r="B14" s="9" t="s">
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1">
+      <c r="B14" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:17" s="14" customFormat="1">
-      <c r="B15" s="9" t="s">
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1">
+      <c r="B15" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:17" s="14" customFormat="1">
-      <c r="B16" s="9" t="s">
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:17" s="13" customFormat="1">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="30">
-      <c r="B17" s="9" t="s">
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="30">
+      <c r="B17" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1">
-      <c r="B18" s="9" t="s">
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1">
-      <c r="A19" s="14" t="s">
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1">
+      <c r="A19" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="60">
-      <c r="B20" s="9" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="60">
+      <c r="B20" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="90">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:9" s="13" customFormat="1" ht="90">
+      <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="26" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="14" customFormat="1">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:9" s="13" customFormat="1">
+      <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" s="14" customFormat="1">
-      <c r="B23" s="9" t="s">
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="13" customFormat="1">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" ht="60">
-      <c r="B24" s="9" t="s">
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="60">
+      <c r="B24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="14" customFormat="1">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:9" s="13" customFormat="1">
+      <c r="B25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" s="14" customFormat="1">
-      <c r="B26" s="9" t="s">
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1">
+      <c r="B26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="45">
-      <c r="B27" s="9" t="s">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" ht="45">
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" s="14" customFormat="1">
-      <c r="B28" s="9" t="s">
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1">
+      <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" s="14" customFormat="1">
-      <c r="B29" s="9" t="s">
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9" s="13" customFormat="1">
+      <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" s="14" customFormat="1">
-      <c r="B30" s="9" t="s">
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1">
+      <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:9" s="14" customFormat="1" ht="60">
-      <c r="B31" s="10" t="s">
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1" ht="60">
+      <c r="B31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" ht="45">
-      <c r="B32" s="10" t="s">
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" s="13" customFormat="1" ht="45">
+      <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="2:9" s="14" customFormat="1" ht="60">
-      <c r="B33" s="10" t="s">
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" s="13" customFormat="1" ht="60">
+      <c r="B33" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="2:9" s="14" customFormat="1" ht="45">
-      <c r="B34" s="9" t="s">
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:9" s="13" customFormat="1" ht="45">
+      <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="14" customFormat="1">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:9" s="13" customFormat="1">
+      <c r="B35" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="2:9" s="14" customFormat="1" ht="30">
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="2:9" s="13" customFormat="1" ht="30">
+      <c r="B36" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="2:9" s="14" customFormat="1">
-      <c r="B37" s="9" t="s">
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="2:9" s="13" customFormat="1">
+      <c r="B37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="2:9" s="14" customFormat="1" ht="60">
-      <c r="B38" s="10" t="s">
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="2:9" s="13" customFormat="1" ht="60">
+      <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="2:9" s="14" customFormat="1">
-      <c r="B39" s="9"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="23"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="2:9" s="14" customFormat="1" ht="30">
-      <c r="B40" s="9" t="s">
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="2:9" s="13" customFormat="1">
+      <c r="B39" s="8"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="22"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="2:9" s="13" customFormat="1" ht="30">
+      <c r="B40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="26"/>
+      <c r="I40" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2885,14 +2932,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2"/>
     <col min="3" max="3" width="42.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="21.5" style="2"/>
   </cols>
@@ -2901,7 +2948,7 @@
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2912,8 +2959,8 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2923,8 +2970,8 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2934,8 +2981,8 @@
       <c r="A4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2945,8 +2992,8 @@
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
+      <c r="B5" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -2956,8 +3003,8 @@
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="2">
-        <v>888</v>
+      <c r="B6" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>86</v>
@@ -2967,8 +3014,8 @@
       <c r="A7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="2">
-        <v>888</v>
+      <c r="B7" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>86</v>
@@ -2978,8 +3025,8 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
+      <c r="B8" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2989,8 +3036,8 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
+      <c r="B9" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3000,8 +3047,8 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
+      <c r="B10" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -3011,8 +3058,8 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
+      <c r="B11" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3022,8 +3069,8 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
-        <v>5</v>
+      <c r="B12" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3033,8 +3080,8 @@
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
-        <v>6</v>
+      <c r="B13" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -3044,8 +3091,8 @@
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
-        <v>7</v>
+      <c r="B14" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>69</v>
@@ -3055,8 +3102,8 @@
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4">
-        <v>888</v>
+      <c r="B15" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>86</v>
@@ -3066,8 +3113,8 @@
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
+      <c r="B16" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -3077,8 +3124,8 @@
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
+      <c r="B17" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -3088,8 +3135,8 @@
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
-        <v>3</v>
+      <c r="B18" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -3099,8 +3146,8 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2">
-        <v>4</v>
+      <c r="B19" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -3110,8 +3157,8 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2">
-        <v>5</v>
+      <c r="B20" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -3121,8 +3168,8 @@
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2">
-        <v>6</v>
+      <c r="B21" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -3132,8 +3179,8 @@
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2">
-        <v>7</v>
+      <c r="B22" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
@@ -3143,8 +3190,8 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2">
-        <v>8</v>
+      <c r="B23" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -3154,8 +3201,8 @@
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2">
-        <v>9</v>
+      <c r="B24" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -3165,8 +3212,8 @@
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2">
-        <v>10</v>
+      <c r="B25" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>69</v>
@@ -3176,8 +3223,8 @@
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2">
-        <v>888</v>
+      <c r="B26" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
@@ -3187,8 +3234,8 @@
       <c r="A27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="2">
-        <v>0</v>
+      <c r="B27" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
@@ -3198,8 +3245,8 @@
       <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
+      <c r="B28" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>88</v>
@@ -3209,8 +3256,8 @@
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="2">
-        <v>2</v>
+      <c r="B29" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
@@ -3220,8 +3267,8 @@
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="2">
-        <v>3</v>
+      <c r="B30" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -3231,8 +3278,8 @@
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="2">
-        <v>4</v>
+      <c r="B31" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3242,8 +3289,8 @@
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="2">
-        <v>5</v>
+      <c r="B32" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>89</v>
@@ -3253,8 +3300,8 @@
       <c r="A33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="2">
-        <v>6</v>
+      <c r="B33" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>44</v>
@@ -3264,8 +3311,8 @@
       <c r="A34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="2">
-        <v>7</v>
+      <c r="B34" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>46</v>
@@ -3275,8 +3322,8 @@
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="2">
-        <v>8</v>
+      <c r="B35" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -3286,8 +3333,8 @@
       <c r="A36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="2">
-        <v>9</v>
+      <c r="B36" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>69</v>
@@ -3297,8 +3344,8 @@
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="2">
-        <v>888</v>
+      <c r="B37" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>86</v>
@@ -3308,8 +3355,8 @@
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
+      <c r="B38" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
@@ -3319,8 +3366,8 @@
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2">
-        <v>2</v>
+      <c r="B39" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -3330,8 +3377,8 @@
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="2">
-        <v>3</v>
+      <c r="B40" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>69</v>
@@ -3341,8 +3388,8 @@
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="2">
-        <v>888</v>
+      <c r="B41" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>86</v>
@@ -3352,8 +3399,8 @@
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="2">
-        <v>0</v>
+      <c r="B42" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>64</v>
@@ -3363,8 +3410,8 @@
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
+      <c r="B43" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>65</v>
@@ -3374,8 +3421,8 @@
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2">
-        <v>888</v>
+      <c r="B44" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>86</v>
@@ -3385,8 +3432,8 @@
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="2">
-        <v>999</v>
+      <c r="B45" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>82</v>
@@ -3396,8 +3443,8 @@
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
+      <c r="B46" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3407,8 +3454,8 @@
       <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2">
-        <v>0</v>
+      <c r="B47" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
@@ -3418,8 +3465,8 @@
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2">
-        <v>888</v>
+      <c r="B48" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>86</v>
@@ -3429,8 +3476,8 @@
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2">
-        <v>999</v>
+      <c r="B49" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>82</v>
@@ -3440,8 +3487,8 @@
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
+      <c r="B50" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>90</v>
@@ -3451,8 +3498,8 @@
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="2">
-        <v>2</v>
+      <c r="B51" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -3462,8 +3509,8 @@
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="2">
-        <v>3</v>
+      <c r="B52" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>92</v>
@@ -3473,8 +3520,8 @@
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="2">
-        <v>4</v>
+      <c r="B53" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>93</v>
@@ -3539,8 +3586,8 @@
       <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
+      <c r="B59" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>75</v>
@@ -3550,8 +3597,8 @@
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
+      <c r="B60" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>76</v>
@@ -3561,8 +3608,8 @@
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="2">
-        <v>2</v>
+      <c r="B61" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>77</v>
@@ -3572,8 +3619,8 @@
       <c r="A62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="2">
-        <v>3</v>
+      <c r="B62" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>78</v>
@@ -3583,8 +3630,8 @@
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="2">
-        <v>4</v>
+      <c r="B63" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>79</v>
@@ -3594,8 +3641,8 @@
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="2">
-        <v>5</v>
+      <c r="B64" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>80</v>
@@ -3605,8 +3652,8 @@
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="2">
-        <v>888</v>
+      <c r="B65" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>86</v>
@@ -3616,10 +3663,10 @@
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="2">
-        <v>9999</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3627,8 +3674,8 @@
       <c r="A67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
+      <c r="B67" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>100</v>
@@ -3638,8 +3685,8 @@
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="2">
-        <v>1</v>
+      <c r="B68" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>105</v>
@@ -3649,8 +3696,8 @@
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="2">
-        <v>2</v>
+      <c r="B69" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>106</v>
@@ -3660,8 +3707,8 @@
       <c r="A70" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="2">
-        <v>3</v>
+      <c r="B70" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>107</v>
@@ -3671,8 +3718,8 @@
       <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="2">
-        <v>4</v>
+      <c r="B71" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>108</v>
@@ -3682,8 +3729,8 @@
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="2">
-        <v>5</v>
+      <c r="B72" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>109</v>
@@ -3693,8 +3740,8 @@
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="2">
-        <v>6</v>
+      <c r="B73" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>110</v>
@@ -3704,8 +3751,8 @@
       <c r="A74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="2">
-        <v>7</v>
+      <c r="B74" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>111</v>
@@ -3715,8 +3762,8 @@
       <c r="A75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2">
-        <v>8</v>
+      <c r="B75" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>112</v>
@@ -3726,8 +3773,8 @@
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2">
-        <v>9</v>
+      <c r="B76" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>69</v>
@@ -3737,8 +3784,8 @@
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="2">
-        <v>888</v>
+      <c r="B77" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>86</v>
@@ -3748,8 +3795,8 @@
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="2">
-        <v>1</v>
+      <c r="B78" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>119</v>
@@ -3759,8 +3806,8 @@
       <c r="A79" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="2">
-        <v>1</v>
+      <c r="B79" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>133</v>
@@ -3770,8 +3817,8 @@
       <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="2">
-        <v>2</v>
+      <c r="B80" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>132</v>
@@ -3781,8 +3828,8 @@
       <c r="A81" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="2">
-        <v>888</v>
+      <c r="B81" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>86</v>
@@ -3792,8 +3839,8 @@
       <c r="A82" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="2">
-        <v>1</v>
+      <c r="B82" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>136</v>
@@ -3803,8 +3850,8 @@
       <c r="A83" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="2">
-        <v>0</v>
+      <c r="B83" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>124</v>
@@ -3869,7 +3916,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">

--- a/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="1860" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="31440" yWindow="1860" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t>type</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Enter months</t>
   </si>
   <si>
-    <t>Client is INELIGIBLE for the following reasons:</t>
-  </si>
-  <si>
     <t>Client is ELIGIBLE</t>
   </si>
   <si>
@@ -441,18 +438,6 @@
   </si>
   <si>
     <t>Thank you for considering being screened for the study. This will in no way affect the care that you, your children, or your partner will receive at the antenatal clinic.</t>
-  </si>
-  <si>
-    <t>- ${_ineligible_curr_relationship}</t>
-  </si>
-  <si>
-    <t>- ${_ineligible_partner_age}</t>
-  </si>
-  <si>
-    <t>- ${_ineligible_clinic_proximity}</t>
-  </si>
-  <si>
-    <t>If client is eligible for study, review previous questions and responses</t>
   </si>
   <si>
     <t>Thank you for your time in answering these questions. Based on some of the answers you gave, you are ineligible to be a part of the study. This in no way affects the care you will receive here at this clinic. Can I answer any questions you may have?</t>
@@ -563,18 +548,6 @@
   </si>
   <si>
     <t>test_result</t>
-  </si>
-  <si>
-    <t>ineligible_list</t>
-  </si>
-  <si>
-    <t>list_curr_rel</t>
-  </si>
-  <si>
-    <t>list_partner_age</t>
-  </si>
-  <si>
-    <t>list_clinic_prox</t>
   </si>
   <si>
     <t>ineligible_statement</t>
@@ -1316,7 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1362,9 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,25 +2239,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="13.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="63" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="27"/>
+    <col min="9" max="9" width="10.83203125" style="26"/>
     <col min="10" max="10" width="10.83203125" style="3"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="3"/>
@@ -2297,22 +2267,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30">
       <c r="A1" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -2320,7 +2290,7 @@
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2352,116 +2322,116 @@
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21" t="s">
-        <v>159</v>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22" t="s">
-        <v>160</v>
+      <c r="C3" s="18"/>
+      <c r="D3" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:17" s="13" customFormat="1">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:17" s="13" customFormat="1" ht="120">
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22" t="s">
-        <v>161</v>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="25"/>
+        <v>149</v>
+      </c>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1">
       <c r="B6" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>162</v>
+      <c r="D6" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>194</v>
+      <c r="I6" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" ht="45">
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22" t="s">
-        <v>163</v>
+      <c r="C7" s="18"/>
+      <c r="D7" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" ht="75">
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22" t="s">
-        <v>164</v>
+      <c r="C8" s="18"/>
+      <c r="D8" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>194</v>
+        <v>151</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="13" customFormat="1" ht="45">
       <c r="B9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>165</v>
+      <c r="D9" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>21</v>
@@ -2469,151 +2439,151 @@
       <c r="F9" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>194</v>
+      <c r="I9" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" ht="30">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22" t="s">
-        <v>166</v>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="24"/>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" ht="30">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
-      <c r="I11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="I11" s="24"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:17" s="13" customFormat="1">
       <c r="B12" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>167</v>
+      <c r="D12" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22" t="s">
-        <v>168</v>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1">
       <c r="B14" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>169</v>
+      <c r="D14" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:17" s="13" customFormat="1">
       <c r="B15" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:17" s="13" customFormat="1">
       <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
-        <v>170</v>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" s="13" customFormat="1" ht="30">
       <c r="B17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>171</v>
+      <c r="D17" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" s="13" customFormat="1">
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22" t="s">
-        <v>172</v>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" s="13" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22"/>
-      <c r="I19" s="25"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="60">
       <c r="B20" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>173</v>
+      <c r="D20" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>55</v>
@@ -2621,17 +2591,17 @@
       <c r="F20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>194</v>
+      <c r="I20" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="13" customFormat="1" ht="90">
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
-        <v>174</v>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>73</v>
@@ -2640,45 +2610,45 @@
         <v>115</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="25" t="s">
-        <v>194</v>
+      <c r="I21" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1">
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="22" t="s">
-        <v>175</v>
+      <c r="C22" s="18"/>
+      <c r="D22" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="26"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" s="13" customFormat="1">
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="22" t="s">
-        <v>176</v>
+      <c r="C23" s="18"/>
+      <c r="D23" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="26"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" ht="60">
       <c r="B24" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>177</v>
+      <c r="D24" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>47</v>
@@ -2686,236 +2656,181 @@
       <c r="F24" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>194</v>
+      <c r="I24" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1">
       <c r="B25" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>178</v>
+      <c r="D25" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="26"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" s="13" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>179</v>
+      <c r="D26" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" ht="45">
-      <c r="B27" s="8" t="s">
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" ht="60">
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="45">
+      <c r="B28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" s="13" customFormat="1" ht="60">
+      <c r="B29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" ht="45">
+      <c r="B30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1">
+      <c r="B31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="13" customFormat="1" ht="30">
+      <c r="B32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" s="13" customFormat="1">
-      <c r="B28" s="8" t="s">
+      <c r="E32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" s="13" customFormat="1">
+      <c r="B33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:9" s="13" customFormat="1" ht="60">
+      <c r="B34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" s="13" customFormat="1">
-      <c r="B29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="22" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" s="13" customFormat="1">
-      <c r="B30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" s="13" customFormat="1" ht="60">
-      <c r="B31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" ht="45">
-      <c r="B32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="2:9" s="13" customFormat="1" ht="60">
-      <c r="B33" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="2:9" s="13" customFormat="1" ht="45">
-      <c r="B34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="22" t="s">
-        <v>187</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>194</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="2:9" s="13" customFormat="1">
-      <c r="B35" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>194</v>
-      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="21"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:9" s="13" customFormat="1" ht="30">
       <c r="B36" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>189</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="2:9" s="13" customFormat="1">
-      <c r="B37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="2:9" s="13" customFormat="1" ht="60">
-      <c r="B38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="2:9" s="13" customFormat="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="22"/>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="2:9" s="13" customFormat="1" ht="30">
-      <c r="B40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I36" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2932,7 +2847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2946,13 +2861,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2960,7 +2875,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2971,7 +2886,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2982,7 +2897,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2993,7 +2908,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -3004,7 +2919,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>86</v>
@@ -3015,7 +2930,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>86</v>
@@ -3026,7 +2941,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -3037,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3048,7 +2963,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -3059,7 +2974,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3070,7 +2985,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3081,7 +2996,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -3092,7 +3007,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>69</v>
@@ -3103,7 +3018,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>86</v>
@@ -3114,7 +3029,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -3125,7 +3040,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -3136,7 +3051,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -3147,7 +3062,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -3158,7 +3073,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -3169,7 +3084,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -3180,7 +3095,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
@@ -3191,7 +3106,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -3202,7 +3117,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -3213,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>69</v>
@@ -3224,7 +3139,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
@@ -3235,7 +3150,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
@@ -3246,7 +3161,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>88</v>
@@ -3257,7 +3172,7 @@
         <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
@@ -3268,7 +3183,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -3279,7 +3194,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3290,7 +3205,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>89</v>
@@ -3301,7 +3216,7 @@
         <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>44</v>
@@ -3312,7 +3227,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>46</v>
@@ -3323,7 +3238,7 @@
         <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -3334,7 +3249,7 @@
         <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>69</v>
@@ -3345,7 +3260,7 @@
         <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>86</v>
@@ -3356,7 +3271,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
@@ -3367,7 +3282,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -3378,7 +3293,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>69</v>
@@ -3389,7 +3304,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>86</v>
@@ -3400,7 +3315,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>64</v>
@@ -3411,7 +3326,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>65</v>
@@ -3422,7 +3337,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>86</v>
@@ -3433,7 +3348,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>82</v>
@@ -3444,7 +3359,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3455,7 +3370,7 @@
         <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
@@ -3466,7 +3381,7 @@
         <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>86</v>
@@ -3477,7 +3392,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>82</v>
@@ -3488,7 +3403,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>90</v>
@@ -3499,7 +3414,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -3510,7 +3425,7 @@
         <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>92</v>
@@ -3521,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>93</v>
@@ -3587,7 +3502,7 @@
         <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>75</v>
@@ -3598,7 +3513,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>76</v>
@@ -3609,7 +3524,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>77</v>
@@ -3620,7 +3535,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>78</v>
@@ -3631,7 +3546,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>79</v>
@@ -3642,7 +3557,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>80</v>
@@ -3653,7 +3568,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>86</v>
@@ -3664,7 +3579,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>72</v>
@@ -3675,7 +3590,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>100</v>
@@ -3686,7 +3601,7 @@
         <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>105</v>
@@ -3697,7 +3612,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>106</v>
@@ -3708,7 +3623,7 @@
         <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>107</v>
@@ -3719,7 +3634,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>108</v>
@@ -3730,7 +3645,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>109</v>
@@ -3741,7 +3656,7 @@
         <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>110</v>
@@ -3752,7 +3667,7 @@
         <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>111</v>
@@ -3763,7 +3678,7 @@
         <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>112</v>
@@ -3774,7 +3689,7 @@
         <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>69</v>
@@ -3785,7 +3700,7 @@
         <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>86</v>
@@ -3796,7 +3711,7 @@
         <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>119</v>
@@ -3807,7 +3722,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>133</v>
@@ -3818,7 +3733,7 @@
         <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>132</v>
@@ -3829,7 +3744,7 @@
         <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>86</v>
@@ -3840,10 +3755,10 @@
         <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3851,7 +3766,7 @@
         <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>124</v>
@@ -3859,24 +3774,24 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3906,26 +3821,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -3933,18 +3848,18 @@
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="1860" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="256">
   <si>
     <t>type</t>
   </si>
@@ -674,6 +675,123 @@
   </si>
   <si>
     <t>a9999</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>baby_alive</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>baby_weight</t>
+  </si>
+  <si>
+    <t>baby_alive_now</t>
+  </si>
+  <si>
+    <t>baby_weight_now</t>
+  </si>
+  <si>
+    <t>delivery_location_other</t>
+  </si>
+  <si>
+    <t>delivery_assisted</t>
+  </si>
+  <si>
+    <t>delivery_assisted_other</t>
+  </si>
+  <si>
+    <t>induced_labor</t>
+  </si>
+  <si>
+    <t>c_section</t>
+  </si>
+  <si>
+    <t>complications</t>
+  </si>
+  <si>
+    <t>complications_other</t>
+  </si>
+  <si>
+    <t>bf_after_deliv</t>
+  </si>
+  <si>
+    <t>still_bf</t>
+  </si>
+  <si>
+    <t>bf_duration</t>
+  </si>
+  <si>
+    <t>test_location</t>
+  </si>
+  <si>
+    <t>test_location_other</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>cd4_known</t>
+  </si>
+  <si>
+    <t>cd4_count</t>
+  </si>
+  <si>
+    <t>prescr_meds</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>azt</t>
+  </si>
+  <si>
+    <t>art_duration</t>
+  </si>
+  <si>
+    <t>art_curr</t>
+  </si>
+  <si>
+    <t>labor_meds</t>
+  </si>
+  <si>
+    <t>meds_after_deliv</t>
+  </si>
+  <si>
+    <t>child_meds</t>
+  </si>
+  <si>
+    <t>child_curr_meds</t>
+  </si>
+  <si>
+    <t>child_missed_doses</t>
+  </si>
+  <si>
+    <t>rel_change</t>
+  </si>
+  <si>
+    <t>rel_change_other</t>
+  </si>
+  <si>
+    <t>rel_end_study</t>
+  </si>
+  <si>
+    <t>rel_end_reason</t>
+  </si>
+  <si>
+    <t>Rel_OtherEnd</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>delivery_location</t>
+  </si>
+  <si>
+    <t>infant_test</t>
   </si>
 </sst>
 </file>
@@ -712,7 +830,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +847,30 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1289,7 +1431,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1365,6 +1507,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3871,4 +4029,547 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="255">
   <si>
     <t>type</t>
   </si>
@@ -579,9 +579,6 @@
   </si>
   <si>
     <t>display.hint</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>select_one</t>
@@ -1431,7 +1428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1497,15 +1494,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1523,6 +1511,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2397,13 +2397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2415,7 +2415,7 @@
     <col min="5" max="5" width="63" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="26"/>
+    <col min="9" max="9" width="10.83203125" style="23"/>
     <col min="10" max="10" width="10.83203125" style="3"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="3"/>
@@ -2425,7 +2425,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30">
       <c r="A1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1">
       <c r="B3" s="8" t="s">
@@ -2502,7 +2502,7 @@
       <c r="E3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:17" s="13" customFormat="1">
       <c r="B4" s="8" t="s">
@@ -2515,7 +2515,7 @@
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:17" s="13" customFormat="1" ht="120">
       <c r="B5" s="10" t="s">
@@ -2528,11 +2528,11 @@
       <c r="E5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1">
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>17</v>
@@ -2543,8 +2543,8 @@
       <c r="E6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>185</v>
+      <c r="I6" s="31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" ht="45">
@@ -2561,7 +2561,7 @@
       <c r="F7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" ht="75">
       <c r="B8" s="8" t="s">
@@ -2577,13 +2577,13 @@
       <c r="F8" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>185</v>
+      <c r="I8" s="31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="13" customFormat="1" ht="45">
       <c r="B9" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>17</v>
@@ -2597,8 +2597,8 @@
       <c r="F9" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>185</v>
+      <c r="I9" s="31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" ht="30">
@@ -2612,22 +2612,22 @@
       <c r="E10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="31"/>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" ht="30">
       <c r="A11" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="18"/>
       <c r="D11" s="21"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="31"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:17" s="13" customFormat="1">
       <c r="B12" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>22</v>
@@ -2638,7 +2638,7 @@
       <c r="E12" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1">
       <c r="B13" s="8" t="s">
@@ -2651,11 +2651,11 @@
       <c r="E13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1">
       <c r="B14" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2666,11 +2666,11 @@
       <c r="E14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:17" s="13" customFormat="1">
       <c r="B15" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>29</v>
@@ -2681,7 +2681,7 @@
       <c r="E15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:17" s="13" customFormat="1">
       <c r="B16" s="8" t="s">
@@ -2694,11 +2694,11 @@
       <c r="E16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" s="13" customFormat="1" ht="30">
       <c r="B17" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>130</v>
@@ -2709,7 +2709,7 @@
       <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" s="13" customFormat="1">
       <c r="B18" s="8" t="s">
@@ -2722,20 +2722,20 @@
       <c r="E18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" s="13" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="18"/>
       <c r="D19" s="21"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="60">
       <c r="B20" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>17</v>
@@ -2749,8 +2749,8 @@
       <c r="F20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>185</v>
+      <c r="I20" s="32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="13" customFormat="1" ht="90">
@@ -2768,8 +2768,8 @@
         <v>115</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="24" t="s">
-        <v>185</v>
+      <c r="I21" s="31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1">
@@ -2783,7 +2783,7 @@
       <c r="E22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" s="13" customFormat="1">
       <c r="B23" s="8" t="s">
@@ -2796,11 +2796,11 @@
       <c r="E23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" ht="60">
       <c r="B24" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>17</v>
@@ -2814,13 +2814,13 @@
       <c r="F24" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>185</v>
+      <c r="I24" s="32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1">
       <c r="B25" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>121</v>
@@ -2831,11 +2831,11 @@
       <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="25"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9" s="13" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>52</v>
@@ -2846,7 +2846,7 @@
       <c r="E26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="25"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" s="13" customFormat="1" ht="60">
       <c r="B27" s="9" t="s">
@@ -2859,7 +2859,7 @@
       <c r="E27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="24"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" s="13" customFormat="1" ht="45">
       <c r="B28" s="9" t="s">
@@ -2875,11 +2875,11 @@
       <c r="F28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" s="13" customFormat="1" ht="60">
       <c r="B29" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>123</v>
@@ -2893,7 +2893,7 @@
       <c r="F29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" s="13" customFormat="1" ht="45">
       <c r="B30" s="8" t="s">
@@ -2909,13 +2909,13 @@
       <c r="F30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="25" t="s">
-        <v>185</v>
+      <c r="I30" s="32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="13" customFormat="1">
       <c r="B31" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>144</v>
@@ -2926,13 +2926,13 @@
       <c r="E31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="24" t="s">
-        <v>185</v>
+      <c r="I31" s="31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="13" customFormat="1" ht="30">
       <c r="B32" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>104</v>
@@ -2943,7 +2943,7 @@
       <c r="E32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="2:9" s="13" customFormat="1">
       <c r="B33" s="8" t="s">
@@ -2956,7 +2956,7 @@
       <c r="E33" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="2:9" s="13" customFormat="1" ht="60">
       <c r="B34" s="9" t="s">
@@ -2969,13 +2969,13 @@
       <c r="E34" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="2:9" s="13" customFormat="1">
       <c r="B35" s="8"/>
       <c r="C35" s="18"/>
       <c r="D35" s="21"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="2:9" s="13" customFormat="1" ht="30">
       <c r="B36" s="8" t="s">
@@ -2988,7 +2988,202 @@
       <c r="E36" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="24"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="33"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="33"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="33"/>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="33"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="33"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="33"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="33"/>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="33"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="33"/>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="33"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="33"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="33"/>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="33"/>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="33"/>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="33"/>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="33"/>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="33"/>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" s="33"/>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" s="33"/>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="33"/>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="33"/>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="33"/>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="33"/>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="33"/>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="33"/>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" s="33"/>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" s="33"/>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" s="33"/>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="33"/>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="33"/>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" s="33"/>
+    </row>
+    <row r="94" spans="9:9">
+      <c r="I94" s="33"/>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" s="33"/>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" s="33"/>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="33"/>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="33"/>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="33"/>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3019,10 +3214,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>153</v>
@@ -3033,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -3044,7 +3239,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -3055,7 +3250,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -3066,7 +3261,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -3077,7 +3272,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>86</v>
@@ -3088,7 +3283,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>86</v>
@@ -3099,7 +3294,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -3110,7 +3305,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3121,7 +3316,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -3132,7 +3327,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3143,7 +3338,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3154,7 +3349,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -3165,7 +3360,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>69</v>
@@ -3176,7 +3371,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>86</v>
@@ -3187,7 +3382,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -3198,7 +3393,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -3209,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -3220,7 +3415,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -3231,7 +3426,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -3242,7 +3437,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -3253,7 +3448,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
@@ -3264,7 +3459,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -3275,7 +3470,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -3286,7 +3481,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>69</v>
@@ -3297,7 +3492,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
@@ -3308,7 +3503,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
@@ -3319,7 +3514,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>88</v>
@@ -3330,7 +3525,7 @@
         <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
@@ -3341,7 +3536,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -3352,7 +3547,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3363,7 +3558,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>89</v>
@@ -3374,7 +3569,7 @@
         <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>44</v>
@@ -3385,7 +3580,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>46</v>
@@ -3396,7 +3591,7 @@
         <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -3407,7 +3602,7 @@
         <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>69</v>
@@ -3418,7 +3613,7 @@
         <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>86</v>
@@ -3429,7 +3624,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
@@ -3440,7 +3635,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -3451,7 +3646,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>69</v>
@@ -3462,7 +3657,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>86</v>
@@ -3473,7 +3668,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>64</v>
@@ -3484,7 +3679,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>65</v>
@@ -3495,7 +3690,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>86</v>
@@ -3506,7 +3701,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>82</v>
@@ -3517,7 +3712,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3528,7 +3723,7 @@
         <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
@@ -3539,7 +3734,7 @@
         <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>86</v>
@@ -3550,7 +3745,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>82</v>
@@ -3561,7 +3756,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>90</v>
@@ -3572,7 +3767,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -3583,7 +3778,7 @@
         <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>92</v>
@@ -3594,7 +3789,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>93</v>
@@ -3660,7 +3855,7 @@
         <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>75</v>
@@ -3671,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>76</v>
@@ -3682,7 +3877,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>77</v>
@@ -3693,7 +3888,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>78</v>
@@ -3704,7 +3899,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>79</v>
@@ -3715,7 +3910,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>80</v>
@@ -3726,7 +3921,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>86</v>
@@ -3737,7 +3932,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>72</v>
@@ -3748,7 +3943,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>100</v>
@@ -3759,7 +3954,7 @@
         <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>105</v>
@@ -3770,7 +3965,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>106</v>
@@ -3781,7 +3976,7 @@
         <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>107</v>
@@ -3792,7 +3987,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>108</v>
@@ -3803,7 +3998,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>109</v>
@@ -3814,7 +4009,7 @@
         <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>110</v>
@@ -3825,7 +4020,7 @@
         <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>111</v>
@@ -3836,7 +4031,7 @@
         <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>112</v>
@@ -3847,7 +4042,7 @@
         <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>69</v>
@@ -3858,7 +4053,7 @@
         <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>86</v>
@@ -3869,7 +4064,7 @@
         <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>119</v>
@@ -3880,7 +4075,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>133</v>
@@ -3891,7 +4086,7 @@
         <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>132</v>
@@ -3902,7 +4097,7 @@
         <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>86</v>
@@ -3913,7 +4108,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>135</v>
@@ -3924,7 +4119,7 @@
         <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>124</v>
@@ -3979,13 +4174,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
@@ -3998,7 +4193,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -4006,18 +4201,18 @@
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4045,522 +4240,522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="B34" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+      <c r="B41" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+      <c r="B50" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
+      <c r="B53" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="B55" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="30" t="s">
+      <c r="B57" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
+      <c r="B64" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
-      <c r="A56" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="29" t="s">
         <v>181</v>
       </c>
     </row>
